--- a/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value1952.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value1952.xlsx
@@ -351,10 +351,10 @@
         <v>1.519472068343946</v>
       </c>
       <c r="B1">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="C1">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="D1">
         <v>1.433320128366342</v>

--- a/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value1952.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value1952.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>1.519472068343946</v>
+        <v>0.2335610389709473</v>
       </c>
       <c r="B1">
-        <v>15</v>
+        <v>0.2404881566762924</v>
       </c>
       <c r="C1">
-        <v>15</v>
+        <v>0.2705089747905731</v>
       </c>
       <c r="D1">
-        <v>1.433320128366342</v>
+        <v>0.4210839867591858</v>
       </c>
       <c r="E1">
-        <v>1.001213113495815</v>
+        <v>1.341478228569031</v>
       </c>
     </row>
   </sheetData>
